--- a/output/ISOcodes.xlsx
+++ b/output/ISOcodes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="1579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="1579">
   <si>
     <t>name</t>
   </si>
@@ -5092,7 +5092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -11605,11 +11607,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A747" workbookViewId="0">
-      <selection activeCell="C766" sqref="C766"/>
+    <sheetView tabSelected="1" topLeftCell="A727" workbookViewId="0">
+      <selection activeCell="D736" sqref="D736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -17743,8 +17748,8 @@
       <c r="A767" t="s">
         <v>1531</v>
       </c>
-      <c r="B767" t="e">
-        <v>#N/A</v>
+      <c r="B767" t="s">
+        <v>1536</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
